--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,117 +43,162 @@
     <t>war</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>fake</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>sick</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>cancelled</t>
+    <t>worse</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>anxiety</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -163,121 +208,148 @@
     <t>join</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>funny</t>
+    <t>data</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -635,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +715,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +776,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -754,13 +826,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.918918918918919</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +876,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,16 +897,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +926,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.863013698630137</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -904,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8620689655172413</v>
+        <v>0.88</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.9268929503916449</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +1026,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8611111111111112</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K8">
-        <v>0.9084507042253521</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1076,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.8664383561643836</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.8984375</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L9">
-        <v>115</v>
+        <v>352</v>
       </c>
       <c r="M9">
-        <v>115</v>
+        <v>352</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1126,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8205128205128205</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.8962264150943396</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1176,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8205128205128205</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.8936170212765957</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1226,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1276,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7843137254901961</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.88125</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L13">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7666666666666667</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K14">
-        <v>0.8787878787878788</v>
+        <v>0.890625</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.751937984496124</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C15">
-        <v>388</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>388</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.88125</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1426,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7407407407407407</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1476,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7301587301587301</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C17">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1526,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7096774193548387</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.8253968253968254</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1576,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6818181818181818</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,16 +1597,16 @@
         <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>0.8055555555555556</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1626,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1676,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6756756756756757</v>
+        <v>0.748062015503876</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="K21">
-        <v>0.78</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1726,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6711409395973155</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K22">
-        <v>0.7735294117647059</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1776,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6610169491525424</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K23">
-        <v>0.7692307692307693</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1826,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6521739130434783</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1844,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>0.7528089887640449</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,13 +1876,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6521739130434783</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K25">
-        <v>0.7525423728813559</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1926,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6363636363636364</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,19 +1944,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K26">
-        <v>0.7450980392156863</v>
+        <v>0.7735294117647059</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1976,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6363636363636364</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,31 +1994,31 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>54</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>27</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>8</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L27">
-        <v>70</v>
-      </c>
-      <c r="M27">
-        <v>70</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,13 +2026,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6153846153846154</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1972,19 +2044,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>0.7384615384615385</v>
+        <v>0.76</v>
       </c>
       <c r="L28">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +2076,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5769230769230769</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2025,16 +2097,16 @@
         <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K29">
-        <v>0.7322175732217573</v>
+        <v>0.75</v>
       </c>
       <c r="L29">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2046,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,13 +2126,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5714285714285714</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2072,19 +2144,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,13 +2176,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5483870967741935</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2122,19 +2194,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K31">
-        <v>0.6857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,13 +2226,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5272727272727272</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2172,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.7447698744769874</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,13 +2276,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5066666666666667</v>
+        <v>0.65625</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2222,19 +2294,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K33">
-        <v>0.6071428571428571</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2246,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2254,13 +2326,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4222222222222222</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2272,19 +2344,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K34">
-        <v>0.5909090909090909</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2296,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2304,13 +2376,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.40625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2322,19 +2394,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K35">
-        <v>0.5777777777777777</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2346,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2354,13 +2426,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3888888888888889</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C36">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2372,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K36">
-        <v>0.5714285714285714</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2396,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2404,13 +2476,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3116883116883117</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2422,19 +2494,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K37">
-        <v>0.5652173913043478</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2446,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2454,231 +2526,827 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1501340482573726</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C38">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>14</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="L38">
+        <v>23</v>
+      </c>
+      <c r="M38">
+        <v>23</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>25</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L39">
+        <v>16</v>
+      </c>
+      <c r="M39">
+        <v>16</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.45</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>22</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K40">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="L40">
+        <v>48</v>
+      </c>
+      <c r="M40">
+        <v>48</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>17</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K41">
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="L41">
+        <v>60</v>
+      </c>
+      <c r="M41">
+        <v>60</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>18</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>30</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.4126984126984127</v>
+      </c>
+      <c r="C43">
+        <v>104</v>
+      </c>
+      <c r="D43">
+        <v>104</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>148</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="L43">
+        <v>19</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.4125</v>
+      </c>
+      <c r="C44">
+        <v>33</v>
+      </c>
+      <c r="D44">
+        <v>33</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>47</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="L44">
+        <v>25</v>
+      </c>
+      <c r="M44">
+        <v>25</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>55</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K45">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>16</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.3766233766233766</v>
+      </c>
+      <c r="C46">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>48</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="L46">
+        <v>13</v>
+      </c>
+      <c r="M46">
+        <v>13</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.3137254901960784</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>35</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47">
+        <v>0.5753424657534246</v>
+      </c>
+      <c r="L47">
+        <v>42</v>
+      </c>
+      <c r="M47">
+        <v>42</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>44</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L48">
+        <v>16</v>
+      </c>
+      <c r="M48">
+        <v>16</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.1849865951742627</v>
+      </c>
+      <c r="C49">
+        <v>69</v>
+      </c>
+      <c r="D49">
+        <v>69</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>304</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K49">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="L49">
+        <v>30</v>
+      </c>
+      <c r="M49">
+        <v>30</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>275</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50">
+        <v>0.5256410256410257</v>
+      </c>
+      <c r="L50">
+        <v>41</v>
+      </c>
+      <c r="M50">
+        <v>41</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D38">
-        <v>56</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>317</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38">
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="L38">
-        <v>44</v>
-      </c>
-      <c r="M38">
-        <v>44</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L39">
+      <c r="B51">
+        <v>0.006069094304388422</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>14</v>
+      </c>
+      <c r="E51">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2129</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K51">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="L51">
+        <v>16</v>
+      </c>
+      <c r="M51">
+        <v>16</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>15</v>
       </c>
-      <c r="M39">
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.004508856682769726</v>
+      </c>
+      <c r="C52">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>0.12</v>
+      </c>
+      <c r="F52">
+        <v>0.88</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3091</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K52">
+        <v>0.4915254237288136</v>
+      </c>
+      <c r="L52">
+        <v>29</v>
+      </c>
+      <c r="M52">
+        <v>29</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="J53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>13</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="J54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K54">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="L54">
+        <v>14</v>
+      </c>
+      <c r="M54">
+        <v>14</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L55">
         <v>15</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="L40">
-        <v>18</v>
-      </c>
-      <c r="M40">
-        <v>18</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+      <c r="M55">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K41">
-        <v>0.4657534246575342</v>
-      </c>
-      <c r="L41">
-        <v>34</v>
-      </c>
-      <c r="M41">
-        <v>34</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L42">
-        <v>19</v>
-      </c>
-      <c r="M42">
-        <v>19</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="L43">
-        <v>13</v>
-      </c>
-      <c r="M43">
-        <v>13</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K44">
-        <v>0.28125</v>
-      </c>
-      <c r="L44">
-        <v>18</v>
-      </c>
-      <c r="M44">
-        <v>18</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45">
-        <v>0.1376146788990826</v>
-      </c>
-      <c r="L45">
-        <v>15</v>
-      </c>
-      <c r="M45">
-        <v>15</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>94</v>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
